--- a/Assignment 4/Results/Varying Interneurons/RMS Error.xlsx
+++ b/Assignment 4/Results/Varying Interneurons/RMS Error.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="19155" windowHeight="11310"/>
@@ -18,17 +18,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Number of Nodes</t>
+    <t>RMS Error</t>
   </si>
   <si>
-    <t>RMS Error</t>
+    <t>Number of Interneurons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,20 +65,61 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Interneurons on </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RMS Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -100,61 +141,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -227,31 +268,83 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="65427712"/>
-        <c:axId val="65426176"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="150383616"/>
+        <c:axId val="150672128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65427712"/>
+        <c:axId val="150383616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Interneurons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65426176"/>
+        <c:crossAx val="150672128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65426176"/>
+        <c:axId val="150672128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMS Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65427712"/>
+        <c:crossAx val="150383616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -259,8 +352,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -275,15 +371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -380,6 +476,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -414,6 +511,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,173 +687,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>0.41020000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.3543</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1.23E-2</v>
@@ -768,24 +866,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
